--- a/src/research/Book1.xlsx
+++ b/src/research/Book1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VILAB1\workspace\nodule_me\src\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pochi\workspace\nodule_me\src\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
   <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
@@ -110,14 +110,113 @@
   </si>
   <si>
     <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRKW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KIM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +229,23 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -156,8 +272,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,15 +562,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -471,7 +604,7 @@
         <v>49.084424972534102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -494,7 +627,7 @@
         <v>62.7636909484863</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -517,7 +650,7 @@
         <v>60.752034187316802</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -540,7 +673,7 @@
         <v>78.454613685607896</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -563,7 +696,7 @@
         <v>73.626637458801198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -584,6 +717,213 @@
       </c>
       <c r="G7">
         <v>73.224306106567298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>670.68636417388905</v>
+      </c>
+      <c r="C8">
+        <v>426.06890201568598</v>
+      </c>
+      <c r="D8">
+        <v>494.06290054321198</v>
+      </c>
+      <c r="E8">
+        <v>67.993998527526799</v>
+      </c>
+      <c r="F8">
+        <v>40.233135223388601</v>
+      </c>
+      <c r="G8">
+        <v>70.005655288696204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>754.77361679077103</v>
+      </c>
+      <c r="C9">
+        <v>671.08869552612305</v>
+      </c>
+      <c r="D9">
+        <v>592.23175048828102</v>
+      </c>
+      <c r="E9">
+        <v>107.422471046447</v>
+      </c>
+      <c r="F9">
+        <v>63.166022300720201</v>
+      </c>
+      <c r="G9">
+        <v>112.652778625488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>713.33348751068104</v>
+      </c>
+      <c r="C10">
+        <v>597.86438941955498</v>
+      </c>
+      <c r="D10">
+        <v>567.68953800201405</v>
+      </c>
+      <c r="E10">
+        <v>87.708234786987305</v>
+      </c>
+      <c r="F10">
+        <v>67.189335823058997</v>
+      </c>
+      <c r="G10">
+        <v>88.110566139221106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>543.14732551574696</v>
+      </c>
+      <c r="C11">
+        <v>421.240925788879</v>
+      </c>
+      <c r="D11">
+        <v>488.02793025970402</v>
+      </c>
+      <c r="E11">
+        <v>94.145536422729407</v>
+      </c>
+      <c r="F11">
+        <v>74.431300163269</v>
+      </c>
+      <c r="G11">
+        <v>80.0639390945434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>691.60759449005104</v>
+      </c>
+      <c r="C12">
+        <v>563.26389312744095</v>
+      </c>
+      <c r="D12">
+        <v>591.42708778381302</v>
+      </c>
+      <c r="E12">
+        <v>92.133879661560002</v>
+      </c>
+      <c r="F12">
+        <v>78.856945037841797</v>
+      </c>
+      <c r="G12">
+        <v>89.317560195922795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>641.71850681304898</v>
+      </c>
+      <c r="C13">
+        <v>498.48854541778502</v>
+      </c>
+      <c r="D13">
+        <v>536.307692527771</v>
+      </c>
+      <c r="E13">
+        <v>74.431300163269</v>
+      </c>
+      <c r="F13">
+        <v>74.431300163269</v>
+      </c>
+      <c r="G13">
+        <v>59.9473714828491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>820.35362720489502</v>
+      </c>
+      <c r="C14">
+        <v>679.13532257079999</v>
+      </c>
+      <c r="D14">
+        <v>667.46771335601795</v>
+      </c>
+      <c r="E14">
+        <v>65.580010414123507</v>
+      </c>
+      <c r="F14">
+        <v>54.3147325515747</v>
+      </c>
+      <c r="G14">
+        <v>65.982341766357393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>688.79127502441395</v>
+      </c>
+      <c r="C15">
+        <v>604.30169105529706</v>
+      </c>
+      <c r="D15">
+        <v>632.86721706390301</v>
+      </c>
+      <c r="E15">
+        <v>75.235962867736802</v>
+      </c>
+      <c r="F15">
+        <v>61.154365539550703</v>
+      </c>
+      <c r="G15">
+        <v>93.743205070495605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>795.81141471862702</v>
+      </c>
+      <c r="C16">
+        <v>673.50268363952603</v>
+      </c>
+      <c r="D16">
+        <v>635.68353652954102</v>
+      </c>
+      <c r="E16">
+        <v>74.833631515502901</v>
+      </c>
+      <c r="F16">
+        <v>68.7986612319946</v>
+      </c>
+      <c r="G16">
+        <v>77.649950981140094</v>
       </c>
     </row>
   </sheetData>
@@ -594,15 +934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -613,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -632,26 +972,8 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
-        <v>523.59877559829999</v>
-      </c>
-      <c r="K2">
-        <v>65.449846949787002</v>
-      </c>
-      <c r="L2">
-        <v>523.59877559829999</v>
-      </c>
-      <c r="M2">
-        <v>65.449846949787002</v>
-      </c>
-      <c r="N2">
-        <v>523.59877559829999</v>
-      </c>
-      <c r="O2">
-        <v>65.449846949787002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -728,7 +1050,7 @@
         <v>74.028968811035099</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <f>Sheet1!C2</f>
         <v>577.74782180786099</v>
@@ -758,7 +1080,7 @@
         <v>577.74782180786099</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="3">C4</f>
+        <f t="shared" ref="K4:K7" si="3">C4</f>
         <v>58.338046073913503</v>
       </c>
       <c r="L4">
@@ -802,7 +1124,7 @@
         <v>58.338046073913503</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <f>Sheet1!D2</f>
         <v>594.24340724945</v>
@@ -876,7 +1198,7 @@
         <v>49.084424972534102</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -953,7 +1275,7 @@
         <v>62.361359596252399</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <f>Sheet1!C5</f>
         <v>669.88170146942105</v>
@@ -1027,7 +1349,7 @@
         <v>63.568353652954102</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <f>Sheet1!D5</f>
         <v>600.27837753295898</v>
@@ -1057,7 +1379,7 @@
         <v>600.27837753295898</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f>C8</f>
         <v>78.454613685607896</v>
       </c>
       <c r="L8">
@@ -1101,76 +1423,751 @@
         <v>73.224306106567298</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f>Sheet1!B8</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!E8</f>
+        <v>67.993998527526799</v>
+      </c>
+      <c r="D9">
+        <f>Sheet1!B9</f>
+        <v>754.77361679077103</v>
+      </c>
+      <c r="E9">
+        <f>Sheet1!E9</f>
+        <v>107.422471046447</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!B8</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="G9">
+        <f>Sheet1!E8</f>
+        <v>67.993998527526799</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:K13" si="14">B9</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="14"/>
+        <v>67.993998527526799</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L13" si="15">D9</f>
+        <v>754.77361679077103</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M13" si="16">E9</f>
+        <v>107.422471046447</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N13" si="17">F9</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O13" si="18">G9</f>
+        <v>67.993998527526799</v>
+      </c>
       <c r="Q9">
-        <f>AVERAGE(Q3)</f>
-        <v>695.22857666015602</v>
+        <f t="shared" ref="Q9:Q14" si="19">J9</f>
+        <v>670.68636417388905</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:V9" si="14">AVERAGE(R3)</f>
-        <v>74.028968811035099</v>
+        <f t="shared" ref="R9:R14" si="20">K9</f>
+        <v>67.993998527526799</v>
       </c>
       <c r="S9">
+        <f t="shared" ref="S9:S14" si="21">L9</f>
+        <v>754.77361679077103</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T14" si="22">M9</f>
+        <v>107.422471046447</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U14" si="23">N9</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V14" si="24">O9</f>
+        <v>67.993998527526799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <f>Sheet1!C8</f>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!F8</f>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="D10">
+        <f>Sheet1!C9</f>
+        <v>671.08869552612305</v>
+      </c>
+      <c r="E10">
+        <f>Sheet1!F9</f>
+        <v>63.166022300720201</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!C8</f>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="G10">
+        <f>Sheet1!F8</f>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="14"/>
-        <v>624.82059001922596</v>
-      </c>
-      <c r="T9">
+        <v>426.06890201568598</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="14"/>
-        <v>78.454613685607896</v>
-      </c>
-      <c r="U9">
+        <v>40.233135223388601</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="15"/>
+        <v>671.08869552612305</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="16"/>
+        <v>63.166022300720201</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="17"/>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="18"/>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="19"/>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="20"/>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="21"/>
+        <v>671.08869552612305</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="22"/>
+        <v>63.166022300720201</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="23"/>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="24"/>
+        <v>40.233135223388601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <f>Sheet1!D8</f>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!G8</f>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="D11">
+        <f>Sheet1!D9</f>
+        <v>592.23175048828102</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!G9</f>
+        <v>112.652778625488</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!D8</f>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!G8</f>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="14"/>
-        <v>695.22857666015602</v>
-      </c>
-      <c r="V9">
+        <v>494.06290054321198</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="14"/>
-        <v>74.028968811035099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="Q10">
-        <f>_xlfn.VAR.P(Q3:Q8)</f>
-        <v>11033.242819369356</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ref="R10:V10" si="15">_xlfn.VAR.P(R3:R8)</f>
-        <v>283.24192991035915</v>
-      </c>
-      <c r="S10">
+        <v>70.005655288696204</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="15"/>
-        <v>2626.3311525554059</v>
-      </c>
-      <c r="T10">
+        <v>592.23175048828102</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="16"/>
+        <v>112.652778625488</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="17"/>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="18"/>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="19"/>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="20"/>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="21"/>
+        <v>592.23175048828102</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="22"/>
+        <v>112.652778625488</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="23"/>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="24"/>
+        <v>70.005655288696204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f>Sheet1!B11</f>
+        <v>543.14732551574696</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!E11</f>
+        <v>94.145536422729407</v>
+      </c>
+      <c r="D12">
+        <f>Sheet1!B12</f>
+        <v>691.60759449005104</v>
+      </c>
+      <c r="E12">
+        <f>Sheet1!E12</f>
+        <v>92.133879661560002</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!B13</f>
+        <v>641.71850681304898</v>
+      </c>
+      <c r="G12">
+        <f>Sheet1!E13</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="14"/>
+        <v>543.14732551574696</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="14"/>
+        <v>94.145536422729407</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="15"/>
-        <v>34.784175539925847</v>
-      </c>
-      <c r="U10">
+        <v>691.60759449005104</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="16"/>
+        <v>92.133879661560002</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="17"/>
+        <v>641.71850681304898</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="18"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="19"/>
+        <v>543.14732551574696</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="20"/>
+        <v>94.145536422729407</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="21"/>
+        <v>691.60759449005104</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="22"/>
+        <v>92.133879661560002</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="23"/>
+        <v>641.71850681304898</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="24"/>
+        <v>74.431300163269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <f>Sheet1!C11</f>
+        <v>421.240925788879</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!F11</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="D13">
+        <f>Sheet1!C12</f>
+        <v>563.26389312744095</v>
+      </c>
+      <c r="E13">
+        <f>Sheet1!F12</f>
+        <v>78.856945037841797</v>
+      </c>
+      <c r="F13">
+        <f>Sheet1!C13</f>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="G13">
+        <f>Sheet1!F13</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="14"/>
+        <v>421.240925788879</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="14"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="15"/>
-        <v>2096.1692381860116</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="15"/>
-        <v>73.525185939616577</v>
+        <v>563.26389312744095</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="16"/>
+        <v>78.856945037841797</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="17"/>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="18"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="19"/>
+        <v>421.240925788879</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="20"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="21"/>
+        <v>563.26389312744095</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="22"/>
+        <v>78.856945037841797</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="23"/>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="24"/>
+        <v>74.431300163269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <f>Sheet1!D11</f>
+        <v>488.02793025970402</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!G11</f>
+        <v>80.0639390945434</v>
+      </c>
+      <c r="D14">
+        <f>Sheet1!D12</f>
+        <v>591.42708778381302</v>
+      </c>
+      <c r="E14">
+        <f>Sheet1!G12</f>
+        <v>89.317560195922795</v>
+      </c>
+      <c r="F14">
+        <f>Sheet1!D13</f>
+        <v>536.307692527771</v>
+      </c>
+      <c r="G14">
+        <f>Sheet1!G13</f>
+        <v>59.9473714828491</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14" si="25">B14</f>
+        <v>488.02793025970402</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="26">C14</f>
+        <v>80.0639390945434</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="27">D14</f>
+        <v>591.42708778381302</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="28">E14</f>
+        <v>89.317560195922795</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14" si="29">F14</f>
+        <v>536.307692527771</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14" si="30">G14</f>
+        <v>59.9473714828491</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="19"/>
+        <v>488.02793025970402</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="20"/>
+        <v>80.0639390945434</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="21"/>
+        <v>591.42708778381302</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="22"/>
+        <v>89.317560195922795</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="23"/>
+        <v>536.307692527771</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="24"/>
+        <v>59.9473714828491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!B14</f>
+        <v>820.35362720489502</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!E14</f>
+        <v>65.580010414123507</v>
+      </c>
+      <c r="D15">
+        <f>Sheet1!B15</f>
+        <v>688.79127502441395</v>
+      </c>
+      <c r="E15">
+        <f>Sheet1!E15</f>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="F15">
+        <f>Sheet1!B16</f>
+        <v>795.81141471862702</v>
+      </c>
+      <c r="G15">
+        <f>Sheet1!E16</f>
+        <v>74.833631515502901</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J17" si="31">B15</f>
+        <v>820.35362720489502</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K17" si="32">C15</f>
+        <v>65.580010414123507</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L17" si="33">D15</f>
+        <v>688.79127502441395</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M17" si="34">E15</f>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N17" si="35">F15</f>
+        <v>795.81141471862702</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O17" si="36">G15</f>
+        <v>74.833631515502901</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q17" si="37">J15</f>
+        <v>820.35362720489502</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:R17" si="38">K15</f>
+        <v>65.580010414123507</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S17" si="39">L15</f>
+        <v>688.79127502441395</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T17" si="40">M15</f>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:U17" si="41">N15</f>
+        <v>795.81141471862702</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:V17" si="42">O15</f>
+        <v>74.833631515502901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <f>Sheet1!C14</f>
+        <v>679.13532257079999</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!F14</f>
+        <v>54.3147325515747</v>
+      </c>
+      <c r="D16">
+        <f>Sheet1!C15</f>
+        <v>604.30169105529706</v>
+      </c>
+      <c r="E16">
+        <f>Sheet1!F15</f>
+        <v>61.154365539550703</v>
+      </c>
+      <c r="F16">
+        <f>Sheet1!C16</f>
+        <v>673.50268363952603</v>
+      </c>
+      <c r="G16">
+        <f>Sheet1!F16</f>
+        <v>68.7986612319946</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="31"/>
+        <v>679.13532257079999</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="32"/>
+        <v>54.3147325515747</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="33"/>
+        <v>604.30169105529706</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="34"/>
+        <v>61.154365539550703</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="35"/>
+        <v>673.50268363952603</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="36"/>
+        <v>68.7986612319946</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="37"/>
+        <v>679.13532257079999</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="38"/>
+        <v>54.3147325515747</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="39"/>
+        <v>604.30169105529706</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="40"/>
+        <v>61.154365539550703</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="41"/>
+        <v>673.50268363952603</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="42"/>
+        <v>68.7986612319946</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <f>Sheet1!D14</f>
+        <v>667.46771335601795</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!G14</f>
+        <v>65.982341766357393</v>
+      </c>
+      <c r="D17">
+        <f>Sheet1!D15</f>
+        <v>632.86721706390301</v>
+      </c>
+      <c r="E17">
+        <f>Sheet1!E15</f>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="F17">
+        <f>Sheet1!D16</f>
+        <v>635.68353652954102</v>
+      </c>
+      <c r="G17">
+        <f>Sheet1!G16</f>
+        <v>77.649950981140094</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="31"/>
+        <v>667.46771335601795</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="32"/>
+        <v>65.982341766357393</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="33"/>
+        <v>632.86721706390301</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="34"/>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="35"/>
+        <v>635.68353652954102</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="36"/>
+        <v>77.649950981140094</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="37"/>
+        <v>667.46771335601795</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="38"/>
+        <v>65.982341766357393</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="39"/>
+        <v>632.86721706390301</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="40"/>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="41"/>
+        <v>635.68353652954102</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="42"/>
+        <v>77.649950981140094</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q18" s="1">
+        <f>AVERAGE(Q3:Q17)</f>
+        <v>615.54014682769741</v>
+      </c>
+      <c r="R18" s="1">
+        <f>AVERAGE(R3:R17)</f>
+        <v>70.327520370483327</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ref="R18:V18" si="43">AVERAGE(S3:S17)</f>
+        <v>611.59729957580544</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="43"/>
+        <v>77.5963068008422</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="43"/>
+        <v>600.19791126251187</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="43"/>
+        <v>65.928697586059528</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q19" s="1">
+        <f>_xlfn.VAR.P(Q3:Q17)</f>
+        <v>16396.802795526386</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" ref="R19:V19" si="44">_xlfn.VAR.P(R3:R17)</f>
+        <v>243.694984192188</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="44"/>
+        <v>4627.421965608266</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="44"/>
+        <v>247.0115312291868</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="44"/>
+        <v>8021.5949083138839</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="44"/>
+        <v>104.32806618609776</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1290,31 +2287,31 @@
         <v>62.7636909484863</v>
       </c>
       <c r="N3">
-        <f>Sheet1!B2</f>
-        <v>695.22857666015602</v>
+        <f>Sheet1!B4</f>
+        <v>625.62525272369305</v>
       </c>
       <c r="O3">
-        <f>Sheet1!C2</f>
-        <v>577.74782180786099</v>
+        <f>Sheet1!C4</f>
+        <v>490.844249725341</v>
       </c>
       <c r="P3">
-        <f>Sheet1!D2</f>
-        <v>594.24340724945</v>
+        <f>Sheet1!D4</f>
+        <v>515.38646221160798</v>
       </c>
       <c r="Q3">
-        <f>Sheet1!E2</f>
-        <v>74.028968811035099</v>
+        <f>Sheet1!E4</f>
+        <v>71.614980697631793</v>
       </c>
       <c r="R3">
-        <f>Sheet1!F2</f>
-        <v>58.338046073913503</v>
+        <f>Sheet1!F4</f>
+        <v>64.373016357421804</v>
       </c>
       <c r="S3">
-        <f>Sheet1!G2</f>
-        <v>49.084424972534102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+        <f>Sheet1!G4</f>
+        <v>60.752034187316802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1389,6 +2386,1339 @@
       <c r="S4">
         <f>Sheet1!G7</f>
         <v>73.224306106567298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <f>Sheet1!B8</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!C8</f>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="D5">
+        <f>Sheet1!D8</f>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!E8</f>
+        <v>67.993998527526799</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!F8</f>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="G5">
+        <f>Sheet1!G8</f>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="H5">
+        <f>Sheet1!B9</f>
+        <v>754.77361679077103</v>
+      </c>
+      <c r="I5">
+        <f>Sheet1!C9</f>
+        <v>671.08869552612305</v>
+      </c>
+      <c r="J5">
+        <f>Sheet1!D9</f>
+        <v>592.23175048828102</v>
+      </c>
+      <c r="K5">
+        <f>Sheet1!E9</f>
+        <v>107.422471046447</v>
+      </c>
+      <c r="L5">
+        <f>Sheet1!F9</f>
+        <v>63.166022300720201</v>
+      </c>
+      <c r="M5">
+        <f>Sheet1!G9</f>
+        <v>112.652778625488</v>
+      </c>
+      <c r="N5">
+        <f>Sheet1!B10</f>
+        <v>713.33348751068104</v>
+      </c>
+      <c r="O5">
+        <f>Sheet1!C10</f>
+        <v>597.86438941955498</v>
+      </c>
+      <c r="P5">
+        <f>Sheet1!D10</f>
+        <v>567.68953800201405</v>
+      </c>
+      <c r="Q5">
+        <f>Sheet1!E10</f>
+        <v>87.708234786987305</v>
+      </c>
+      <c r="R5">
+        <f>Sheet1!F10</f>
+        <v>67.189335823058997</v>
+      </c>
+      <c r="S5">
+        <f>Sheet1!G10</f>
+        <v>88.110566139221106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!B11</f>
+        <v>543.14732551574696</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!C11</f>
+        <v>421.240925788879</v>
+      </c>
+      <c r="D6">
+        <f>Sheet1!D11</f>
+        <v>488.02793025970402</v>
+      </c>
+      <c r="E6">
+        <f>Sheet1!E11</f>
+        <v>94.145536422729407</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!F11</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="G6">
+        <f>Sheet1!G11</f>
+        <v>80.0639390945434</v>
+      </c>
+      <c r="H6">
+        <f>Sheet1!B12</f>
+        <v>691.60759449005104</v>
+      </c>
+      <c r="I6">
+        <f>Sheet1!C12</f>
+        <v>563.26389312744095</v>
+      </c>
+      <c r="J6">
+        <f>Sheet1!D12</f>
+        <v>591.42708778381302</v>
+      </c>
+      <c r="K6">
+        <f>Sheet1!E12</f>
+        <v>92.133879661560002</v>
+      </c>
+      <c r="L6">
+        <f>Sheet1!F12</f>
+        <v>78.856945037841797</v>
+      </c>
+      <c r="M6">
+        <f>Sheet1!G12</f>
+        <v>89.317560195922795</v>
+      </c>
+      <c r="N6">
+        <f>Sheet1!B13</f>
+        <v>641.71850681304898</v>
+      </c>
+      <c r="O6">
+        <f>Sheet1!C13</f>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="P6">
+        <f>Sheet1!D13</f>
+        <v>536.307692527771</v>
+      </c>
+      <c r="Q6">
+        <f>Sheet1!E13</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="R6">
+        <f>Sheet1!F13</f>
+        <v>74.431300163269</v>
+      </c>
+      <c r="S6">
+        <f>Sheet1!G13</f>
+        <v>59.9473714828491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f>Sheet1!B14</f>
+        <v>820.35362720489502</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!C14</f>
+        <v>679.13532257079999</v>
+      </c>
+      <c r="D7">
+        <f>Sheet1!D14</f>
+        <v>667.46771335601795</v>
+      </c>
+      <c r="E7">
+        <f>Sheet1!E14</f>
+        <v>65.580010414123507</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!F14</f>
+        <v>54.3147325515747</v>
+      </c>
+      <c r="G7">
+        <f>Sheet1!G14</f>
+        <v>65.982341766357393</v>
+      </c>
+      <c r="H7">
+        <f>Sheet1!B15</f>
+        <v>688.79127502441395</v>
+      </c>
+      <c r="I7">
+        <f>Sheet1!C15</f>
+        <v>604.30169105529706</v>
+      </c>
+      <c r="J7">
+        <f>Sheet1!D15</f>
+        <v>632.86721706390301</v>
+      </c>
+      <c r="K7">
+        <f>Sheet1!E15</f>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="L7">
+        <f>Sheet1!F15</f>
+        <v>61.154365539550703</v>
+      </c>
+      <c r="M7">
+        <f>Sheet1!G15</f>
+        <v>93.743205070495605</v>
+      </c>
+      <c r="N7">
+        <f>Sheet1!B16</f>
+        <v>795.81141471862702</v>
+      </c>
+      <c r="O7">
+        <f>Sheet1!C16</f>
+        <v>673.50268363952603</v>
+      </c>
+      <c r="P7">
+        <f>Sheet1!D16</f>
+        <v>635.68353652954102</v>
+      </c>
+      <c r="Q7">
+        <f>Sheet1!E16</f>
+        <v>74.833631515502901</v>
+      </c>
+      <c r="R7">
+        <f>Sheet1!F16</f>
+        <v>68.7986612319946</v>
+      </c>
+      <c r="S7">
+        <f>Sheet1!G16</f>
+        <v>77.649950981140094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B3:B7)</f>
+        <v>722.98943996429421</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>554.81493473052944</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>568.81606578826859</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E3:E7)</f>
+        <v>80.707669258117562</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(F3:F7)</f>
+        <v>61.556696891784625</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(G3:G7)</f>
+        <v>68.718194961547809</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(H3:H7)</f>
+        <v>673.01988601684548</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(I3:I7)</f>
+        <v>589.41543102264359</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(J3:J7)</f>
+        <v>572.35658168792679</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(K3:K7)</f>
+        <v>83.202123641967603</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(L3:L7)</f>
+        <v>66.867470741271944</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(M3:M7)</f>
+        <v>86.420774459838782</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(N3:N7)</f>
+        <v>676.56040191650334</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(O3:O7)</f>
+        <v>574.44870471954277</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE(P3:P7)</f>
+        <v>560.12570858001686</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>74.189901351928683</v>
+      </c>
+      <c r="R8">
+        <f>AVERAGE(R3:R7)</f>
+        <v>67.672133445739703</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGE(S3:S7)</f>
+        <v>71.936845779418874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>119.79073975560128</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:S9" si="0">_xlfn.STDEV.P(C3:C7)</f>
+        <v>112.81790084446276</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>68.532230196122299</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14.561060331398817</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>14.427941116097877</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>11.118912988981759</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>53.316661769597083</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>57.034637804040194</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>44.520177528404858</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>15.297905694700752</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>6.240157976141175</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>17.166682510372944</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>69.73673288285994</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>69.993815571847463</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>41.345414581397115</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>8.1211158988495864</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>3.8707538093537512</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>10.627641880266024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1">
+        <f>B8</f>
+        <v>722.98943996429421</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:D16" si="1">C8</f>
+        <v>554.81493473052944</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>568.81606578826859</v>
+      </c>
+      <c r="E15" s="1">
+        <f>H8</f>
+        <v>673.01988601684548</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:G15" si="2">I8</f>
+        <v>589.41543102264359</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>572.35658168792679</v>
+      </c>
+      <c r="H15" s="1">
+        <f>N8</f>
+        <v>676.56040191650334</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:J15" si="3">O8</f>
+        <v>574.44870471954277</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>560.12570858001686</v>
+      </c>
+      <c r="K15" s="1">
+        <f>E8</f>
+        <v>80.707669258117562</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15:M15" si="4">F8</f>
+        <v>61.556696891784625</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>68.718194961547809</v>
+      </c>
+      <c r="N15" s="1">
+        <f>K8</f>
+        <v>83.202123641967603</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15:P15" si="5">L8</f>
+        <v>66.867470741271944</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>86.420774459838782</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>Q8</f>
+        <v>74.189901351928683</v>
+      </c>
+      <c r="R15" s="1">
+        <f>R8</f>
+        <v>67.672133445739703</v>
+      </c>
+      <c r="S15" s="1">
+        <f>S8</f>
+        <v>71.936845779418874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1">
+        <f>B9</f>
+        <v>119.79073975560128</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>112.81790084446276</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>68.532230196122299</v>
+      </c>
+      <c r="E16" s="1">
+        <f>H9</f>
+        <v>53.316661769597083</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16" si="6">I9</f>
+        <v>57.034637804040194</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16" si="7">J9</f>
+        <v>44.520177528404858</v>
+      </c>
+      <c r="H16" s="1">
+        <f>N9</f>
+        <v>69.73673288285994</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16" si="8">O9</f>
+        <v>69.993815571847463</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16" si="9">P9</f>
+        <v>41.345414581397115</v>
+      </c>
+      <c r="K16" s="1">
+        <f>E9</f>
+        <v>14.561060331398817</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16" si="10">F9</f>
+        <v>14.427941116097877</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16" si="11">G9</f>
+        <v>11.118912988981759</v>
+      </c>
+      <c r="N16" s="1">
+        <f>K9</f>
+        <v>15.297905694700752</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16" si="12">L9</f>
+        <v>6.240157976141175</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" ref="P16" si="13">M9</f>
+        <v>17.166682510372944</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>Q9</f>
+        <v>8.1211158988495864</v>
+      </c>
+      <c r="R16" s="1">
+        <f>R9</f>
+        <v>3.8707538093537512</v>
+      </c>
+      <c r="S16" s="1">
+        <f>S9</f>
+        <v>10.627641880266024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>B3</f>
+        <v>695.22857666015602</v>
+      </c>
+      <c r="C20">
+        <f>H3</f>
+        <v>624.82059001922596</v>
+      </c>
+      <c r="D20">
+        <f>N3</f>
+        <v>625.62525272369305</v>
+      </c>
+      <c r="E20">
+        <f>C3</f>
+        <v>577.74782180786099</v>
+      </c>
+      <c r="F20">
+        <f>I3</f>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="G20">
+        <f>O3</f>
+        <v>490.844249725341</v>
+      </c>
+      <c r="H20">
+        <f>D3</f>
+        <v>594.24340724945</v>
+      </c>
+      <c r="I20">
+        <f>J3</f>
+        <v>539.12401199340798</v>
+      </c>
+      <c r="J20">
+        <f>P3</f>
+        <v>515.38646221160798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>B4</f>
+        <v>885.53130626678399</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C25" si="14">H4</f>
+        <v>605.10635375976506</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D25" si="15">N4</f>
+        <v>606.31334781646694</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E25" si="16">C4</f>
+        <v>669.88170146942105</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F25" si="17">I4</f>
+        <v>609.93432998657204</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G25" si="18">O4</f>
+        <v>611.54365539550702</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H25" si="19">D4</f>
+        <v>600.27837753295898</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I25" si="20">J4</f>
+        <v>506.13284111022898</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J25" si="21">P4</f>
+        <v>545.56131362915005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>B5</f>
+        <v>670.68636417388905</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="14"/>
+        <v>754.77361679077103</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="15"/>
+        <v>713.33348751068104</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="16"/>
+        <v>426.06890201568598</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="17"/>
+        <v>671.08869552612305</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="18"/>
+        <v>597.86438941955498</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="19"/>
+        <v>494.06290054321198</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="20"/>
+        <v>592.23175048828102</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="21"/>
+        <v>567.68953800201405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>B6</f>
+        <v>543.14732551574696</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="14"/>
+        <v>691.60759449005104</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="15"/>
+        <v>641.71850681304898</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="16"/>
+        <v>421.240925788879</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="17"/>
+        <v>563.26389312744095</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="18"/>
+        <v>498.48854541778502</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="19"/>
+        <v>488.02793025970402</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="20"/>
+        <v>591.42708778381302</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="21"/>
+        <v>536.307692527771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>B7</f>
+        <v>820.35362720489502</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="14"/>
+        <v>688.79127502441395</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="15"/>
+        <v>795.81141471862702</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="16"/>
+        <v>679.13532257079999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="17"/>
+        <v>604.30169105529706</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="18"/>
+        <v>673.50268363952603</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="19"/>
+        <v>667.46771335601795</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="20"/>
+        <v>632.86721706390301</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="21"/>
+        <v>635.68353652954102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1">
+        <f>B8</f>
+        <v>722.98943996429421</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="14"/>
+        <v>673.01988601684548</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="15"/>
+        <v>676.56040191650334</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="16"/>
+        <v>554.81493473052944</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="17"/>
+        <v>589.41543102264359</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="18"/>
+        <v>574.44870471954277</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="19"/>
+        <v>568.81606578826859</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="20"/>
+        <v>572.35658168792679</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="21"/>
+        <v>560.12570858001686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2">
+        <f>B25-$K26</f>
+        <v>199.39066436599421</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:J26" si="22">C25-$K26</f>
+        <v>149.42111041854548</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="22"/>
+        <v>152.96162631820334</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="22"/>
+        <v>31.21615913222945</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="22"/>
+        <v>65.816655424343594</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="22"/>
+        <v>50.849929121242781</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="22"/>
+        <v>45.217290189968594</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="22"/>
+        <v>48.757806089626797</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="22"/>
+        <v>36.526932981716868</v>
+      </c>
+      <c r="K26">
+        <v>523.59877559829999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1">
+        <f>B9</f>
+        <v>119.79073975560128</v>
+      </c>
+      <c r="C27" s="1">
+        <f>H9</f>
+        <v>53.316661769597083</v>
+      </c>
+      <c r="D27" s="1">
+        <f>N9</f>
+        <v>69.73673288285994</v>
+      </c>
+      <c r="E27" s="1">
+        <f>C9</f>
+        <v>112.81790084446276</v>
+      </c>
+      <c r="F27" s="1">
+        <f>I9</f>
+        <v>57.034637804040194</v>
+      </c>
+      <c r="G27" s="1">
+        <f>O9</f>
+        <v>69.993815571847463</v>
+      </c>
+      <c r="H27" s="1">
+        <f>D9</f>
+        <v>68.532230196122299</v>
+      </c>
+      <c r="I27" s="1">
+        <f>J9</f>
+        <v>44.520177528404858</v>
+      </c>
+      <c r="J27" s="1">
+        <f>P9</f>
+        <v>41.345414581397115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f>E3</f>
+        <v>74.028968811035099</v>
+      </c>
+      <c r="C31">
+        <f>K3</f>
+        <v>78.454613685607896</v>
+      </c>
+      <c r="D31">
+        <f>Q3</f>
+        <v>71.614980697631793</v>
+      </c>
+      <c r="E31">
+        <f>F3</f>
+        <v>58.338046073913503</v>
+      </c>
+      <c r="F31">
+        <f>L3</f>
+        <v>66.384673118591294</v>
+      </c>
+      <c r="G31">
+        <f>R3</f>
+        <v>64.373016357421804</v>
+      </c>
+      <c r="H31">
+        <f>G3</f>
+        <v>49.084424972534102</v>
+      </c>
+      <c r="I31">
+        <f>M3</f>
+        <v>62.7636909484863</v>
+      </c>
+      <c r="J31">
+        <f>S3</f>
+        <v>60.752034187316802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B36" si="23">E4</f>
+        <v>101.789832115173</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C36" si="24">K4</f>
+        <v>62.7636909484863</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D36" si="25">Q4</f>
+        <v>62.361359596252399</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E36" si="26">F4</f>
+        <v>80.466270446777301</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F36" si="27">L4</f>
+        <v>64.775347709655705</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G36" si="28">R4</f>
+        <v>63.568353652954102</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H36" si="29">G4</f>
+        <v>78.454613685607896</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I36" si="30">M4</f>
+        <v>73.626637458801198</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J36" si="31">S4</f>
+        <v>73.224306106567298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="23"/>
+        <v>67.993998527526799</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="24"/>
+        <v>107.422471046447</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="25"/>
+        <v>87.708234786987305</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="26"/>
+        <v>40.233135223388601</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="27"/>
+        <v>63.166022300720201</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="28"/>
+        <v>67.189335823058997</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="29"/>
+        <v>70.005655288696204</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="30"/>
+        <v>112.652778625488</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="31"/>
+        <v>88.110566139221106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="23"/>
+        <v>94.145536422729407</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="24"/>
+        <v>92.133879661560002</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="25"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="26"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="27"/>
+        <v>78.856945037841797</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="28"/>
+        <v>74.431300163269</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="29"/>
+        <v>80.0639390945434</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="30"/>
+        <v>89.317560195922795</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="31"/>
+        <v>59.9473714828491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="23"/>
+        <v>65.580010414123507</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="24"/>
+        <v>75.235962867736802</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="25"/>
+        <v>74.833631515502901</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="26"/>
+        <v>54.3147325515747</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="27"/>
+        <v>61.154365539550703</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="28"/>
+        <v>68.7986612319946</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="29"/>
+        <v>65.982341766357393</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="30"/>
+        <v>93.743205070495605</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="31"/>
+        <v>77.649950981140094</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="23"/>
+        <v>80.707669258117562</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="24"/>
+        <v>83.202123641967603</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="25"/>
+        <v>74.189901351928683</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="26"/>
+        <v>61.556696891784625</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="27"/>
+        <v>66.867470741271944</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="28"/>
+        <v>67.672133445739703</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="29"/>
+        <v>68.718194961547809</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="30"/>
+        <v>86.420774459838782</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="31"/>
+        <v>71.936845779418874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <f>B36-$K37</f>
+        <v>15.25782230833056</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:J37" si="32">C36-$K37</f>
+        <v>17.752276692180601</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="32"/>
+        <v>8.7400544021416806</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="32"/>
+        <v>-3.8931500580023766</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="32"/>
+        <v>1.4176237914849423</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="32"/>
+        <v>2.2222864959527016</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="32"/>
+        <v>3.268348011760807</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="32"/>
+        <v>20.97092751005178</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="32"/>
+        <v>6.4869988296318724</v>
+      </c>
+      <c r="K37">
+        <v>65.449846949787002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f>E9</f>
+        <v>14.561060331398817</v>
+      </c>
+      <c r="C38" s="1">
+        <f>K9</f>
+        <v>15.297905694700752</v>
+      </c>
+      <c r="D38" s="1">
+        <f>Q9</f>
+        <v>8.1211158988495864</v>
+      </c>
+      <c r="E38" s="1">
+        <f>F9</f>
+        <v>14.427941116097877</v>
+      </c>
+      <c r="F38" s="1">
+        <f>L9</f>
+        <v>6.240157976141175</v>
+      </c>
+      <c r="G38" s="1">
+        <f>R9</f>
+        <v>3.8707538093537512</v>
+      </c>
+      <c r="H38" s="1">
+        <f>G9</f>
+        <v>11.118912988981759</v>
+      </c>
+      <c r="I38" s="1">
+        <f>M9</f>
+        <v>17.166682510372944</v>
+      </c>
+      <c r="J38" s="1">
+        <f>S9</f>
+        <v>10.627641880266024</v>
       </c>
     </row>
   </sheetData>
@@ -1401,13 +3731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +3804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +3881,7 @@
         <v>49.084424972534102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +3958,7 @@
         <v>73.224306106567298</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>523.59877559829999</v>
       </c>
@@ -1684,7 +4014,7 @@
         <v>65.449846949787002</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <f>B3-B$10</f>
         <v>171.62980106185603</v>
@@ -1758,7 +4088,7 @@
         <v>-16.3654219772529</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <f>B4-B$10</f>
         <v>361.93253066848399</v>
@@ -1832,7 +4162,7 @@
         <v>7.7744591567802956</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <f>B11*B11</f>
         <v>29456.788612532277</v>
@@ -1906,7 +4236,7 @@
         <v>267.82703649355221</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>B12*B12</f>
         <v>130995.1567560931</v>
